--- a/진행상황/로딩암 예상 예산안.xlsx
+++ b/진행상황/로딩암 예상 예산안.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skena\OneDrive\바탕 화면\야나두\2020 한이음\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB93B7C9-972F-4496-8A7A-1F6A44B27F9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A83792B-34C7-4C7C-9DC2-1BF351CD87A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="924" yWindow="3732" windowWidth="17280" windowHeight="8964" xr2:uid="{F25E22D6-3EEC-4AB8-9D58-28CF4F40FA33}"/>
+    <workbookView xWindow="1632" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{F25E22D6-3EEC-4AB8-9D58-28CF4F40FA33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>자이로 센서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,22 @@
   </si>
   <si>
     <t>약 400,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QR코드 리더기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BQ-720P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,9 +257,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -256,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,9 +284,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -284,14 +295,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -610,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A3323A-BA16-4385-B725-31CF17FD2D20}">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -625,19 +642,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -648,10 +665,10 @@
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="3">
@@ -665,10 +682,10 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="3">
@@ -682,10 +699,10 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="3">
@@ -697,10 +714,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2">
@@ -712,10 +729,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="3">
@@ -729,10 +746,10 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="4">
@@ -746,10 +763,10 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="3">
@@ -763,10 +780,10 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="3">
@@ -780,47 +797,64 @@
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2">
         <v>1400</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E13" s="11" t="s">
+      <c r="B13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="11">
+        <v>144940</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="6">
-        <f>SUM(F3:F12)</f>
-        <v>123130</v>
+      <c r="F14" s="5">
+        <f>SUM(F3:F13)</f>
+        <v>268070</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
